--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_7.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152556.8087766471</v>
+        <v>132880.6649337839</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26317,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="D2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="E2" t="n">
         <v>37627.59193600625</v>
@@ -26326,10 +26326,10 @@
         <v>37627.59193600624</v>
       </c>
       <c r="G2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="H2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="I2" t="n">
         <v>37627.59193600625</v>
@@ -26341,10 +26341,10 @@
         <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
         <v>37627.59193600625</v>
@@ -26353,7 +26353,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="F4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="H4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="I4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="J4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="K4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="L4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="M4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="N4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="O4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="P4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4399.024121137998</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="C6" t="n">
-        <v>-4399.024121137998</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="D6" t="n">
-        <v>-4399.024121138005</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="E6" t="n">
-        <v>29228.57587886201</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="F6" t="n">
-        <v>29228.57587886199</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="G6" t="n">
-        <v>29228.57587886199</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="H6" t="n">
-        <v>29228.575878862</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="I6" t="n">
-        <v>29228.575878862</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="J6" t="n">
-        <v>29228.575878862</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="K6" t="n">
-        <v>29228.57587886201</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="L6" t="n">
-        <v>29228.57587886199</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="M6" t="n">
-        <v>29228.57587886199</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="N6" t="n">
-        <v>29228.575878862</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="O6" t="n">
-        <v>29228.575878862</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="P6" t="n">
-        <v>29228.575878862</v>
+        <v>26876.8513828616</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132880.6649337839</v>
+        <v>132880.664933784</v>
       </c>
     </row>
     <row r="7">
@@ -26323,13 +26325,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="F2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="G2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="H2" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
         <v>37627.59193600625</v>
@@ -26353,7 +26355,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26531,13 +26533,13 @@
         <v>26876.85138286161</v>
       </c>
       <c r="F6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="G6" t="n">
         <v>26876.85138286161</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.85138286159</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="I6" t="n">
         <v>26876.85138286161</v>
@@ -26561,7 +26563,7 @@
         <v>26876.85138286161</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132880.664933784</v>
+        <v>6119.711064518904</v>
       </c>
     </row>
     <row r="7">
@@ -26340,7 +26340,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="L2" t="n">
         <v>37627.59193600625</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717316</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717316</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717316</v>
       </c>
       <c r="E6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="F6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="G6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="I6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="J6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="K6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="L6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="M6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="N6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="O6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.85138286161</v>
+        <v>11726.17741282684</v>
       </c>
     </row>
   </sheetData>
